--- a/ldsc_reg/generation_scotland/ldsc_estimates.xlsx
+++ b/ldsc_reg/generation_scotland/ldsc_estimates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hariharan\Documents\git_repos\SNIPar\ldsc_reg\generation_scotland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D4AB7D-C6A0-4495-B023-64869E1D589B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD64463-EE4E-41BD-9F4F-C8927FE154DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2C066B1F-A0AA-44EF-823C-34FAD0003453}"/>
+    <workbookView xWindow="885" yWindow="2580" windowWidth="18450" windowHeight="9360" xr2:uid="{2C066B1F-A0AA-44EF-823C-34FAD0003453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>trait</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>effectestimated</t>
+  </si>
+  <si>
+    <t>population</t>
   </si>
 </sst>
 </file>
@@ -413,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7194B7DF-EF15-44B4-BD88-0FD39B573A5A}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +430,7 @@
     <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +455,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -475,8 +484,11 @@
       <c r="H2">
         <v>8.7400000000000005E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -495,8 +507,11 @@
       <c r="G3">
         <v>3.5499999999999997E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -521,8 +536,11 @@
       <c r="H4">
         <v>3.1699999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -547,16 +565,22 @@
       <c r="H5">
         <v>5.8200000000000002E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -581,8 +605,11 @@
       <c r="H7">
         <v>5.8799999999999998E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -607,8 +634,11 @@
       <c r="H8">
         <v>0.31680000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14</v>
       </c>
@@ -632,6 +662,9 @@
       </c>
       <c r="H9">
         <v>0.12529999999999999</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
